--- a/data/trans_orig/AIRE_2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_2-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>15913</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9329</v>
+        <v>8620</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27552</v>
+        <v>26640</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08654445047147212</v>
+        <v>0.08654445047147213</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05073724093080263</v>
+        <v>0.04687884673281346</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1498454941695205</v>
+        <v>0.14488435795853</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -762,19 +762,19 @@
         <v>14452</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8778</v>
+        <v>9040</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20964</v>
+        <v>20502</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09460720093244659</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0574614904430517</v>
+        <v>0.05917661848219984</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1372355201033761</v>
+        <v>0.1342125216204057</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -783,19 +783,19 @@
         <v>30365</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22226</v>
+        <v>21450</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42470</v>
+        <v>42640</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09020323010412488</v>
+        <v>0.09020323010412487</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06602502387417108</v>
+        <v>0.06372061233685467</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1261627234060319</v>
+        <v>0.1266684481762219</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>14708</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7544</v>
+        <v>7792</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26776</v>
+        <v>26459</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07998922602755097</v>
+        <v>0.07998922602755099</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04102812933776752</v>
+        <v>0.04238041054525532</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1456269182332567</v>
+        <v>0.1438995765685271</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -833,19 +833,19 @@
         <v>15480</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9750</v>
+        <v>9543</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24751</v>
+        <v>25208</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1013365451343778</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06382711226475442</v>
+        <v>0.06247349442479929</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1620291882153967</v>
+        <v>0.165020019766058</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -854,19 +854,19 @@
         <v>30187</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21070</v>
+        <v>20494</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44181</v>
+        <v>43843</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.0896763838700073</v>
+        <v>0.08967638387000729</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06259266915505446</v>
+        <v>0.06088139923151555</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1312448174834437</v>
+        <v>0.1302428760811731</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>83734</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>70196</v>
+        <v>68797</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>98343</v>
+        <v>99187</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4554004368535202</v>
+        <v>0.4554004368535203</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3817720842644876</v>
+        <v>0.374161609001351</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5348505193332382</v>
+        <v>0.5394425681975747</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>106</v>
@@ -904,19 +904,19 @@
         <v>71348</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>59756</v>
+        <v>61088</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>81339</v>
+        <v>82463</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.467067077649434</v>
+        <v>0.4670670776494339</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3911847309086372</v>
+        <v>0.3998999146315332</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5324716348321156</v>
+        <v>0.5398310769667859</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>189</v>
@@ -925,19 +925,19 @@
         <v>155082</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>135589</v>
+        <v>137151</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>172379</v>
+        <v>171180</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.4606946187747112</v>
+        <v>0.4606946187747111</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.402786407050258</v>
+        <v>0.407427339529984</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5120776112474603</v>
+        <v>0.5085165971841863</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>35208</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25617</v>
+        <v>25278</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47015</v>
+        <v>47985</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1914805897477876</v>
+        <v>0.1914805897477877</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1393197009969628</v>
+        <v>0.1374776656379169</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2556989088456644</v>
+        <v>0.2609714219554942</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -975,19 +975,19 @@
         <v>27031</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19642</v>
+        <v>19274</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36042</v>
+        <v>35293</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1769514222575818</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1285803390534167</v>
+        <v>0.1261774708026221</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.235942129011657</v>
+        <v>0.2310403786280255</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -996,19 +996,19 @@
         <v>62238</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49531</v>
+        <v>50208</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77177</v>
+        <v>76900</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1848874274826441</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1471402441172642</v>
+        <v>0.1491488544393218</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2292645358533148</v>
+        <v>0.228442198757547</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>34307</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>23572</v>
+        <v>24039</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45775</v>
+        <v>46420</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.186585296899669</v>
+        <v>0.1865852968996691</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1281968045373186</v>
+        <v>0.1307392139097422</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2489524488654691</v>
+        <v>0.2524601323569616</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>39</v>
@@ -1046,19 +1046,19 @@
         <v>24447</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17885</v>
+        <v>17553</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>32421</v>
+        <v>31911</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1600377540261598</v>
+        <v>0.1600377540261597</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1170812473519689</v>
+        <v>0.1149074518775938</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.212237907308722</v>
+        <v>0.2088975490657341</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>78</v>
@@ -1067,19 +1067,19 @@
         <v>58754</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>46705</v>
+        <v>46353</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>72873</v>
+        <v>71527</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1745383397685126</v>
+        <v>0.1745383397685125</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1387449329022571</v>
+        <v>0.1376997322194052</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2164805297719604</v>
+        <v>0.212481528060022</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>21761</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13538</v>
+        <v>13014</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33048</v>
+        <v>33556</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1184863260137122</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0737147697932783</v>
+        <v>0.07085913636488191</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1799410299876492</v>
+        <v>0.1827083051325235</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1192,19 +1192,19 @@
         <v>12204</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6733</v>
+        <v>6988</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21486</v>
+        <v>20641</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07755140329496306</v>
+        <v>0.07755140329496307</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04278701513684068</v>
+        <v>0.04440602922741164</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1365418445751693</v>
+        <v>0.131169517710182</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1213,19 +1213,19 @@
         <v>33965</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23673</v>
+        <v>23368</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48112</v>
+        <v>48596</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09959724706592109</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0694170965422533</v>
+        <v>0.06852461656381705</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1410812071665654</v>
+        <v>0.1425015015301035</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>16535</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10227</v>
+        <v>9985</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27232</v>
+        <v>25806</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.090030940677232</v>
+        <v>0.09003094067723198</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05568227349499153</v>
+        <v>0.05436848606778245</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1482743020840655</v>
+        <v>0.140508029011303</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -1263,19 +1263,19 @@
         <v>21184</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14640</v>
+        <v>14564</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30181</v>
+        <v>29206</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1346215040256502</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09303219842554883</v>
+        <v>0.09254945646119928</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.191793770649722</v>
+        <v>0.1855950526235061</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>49</v>
@@ -1284,19 +1284,19 @@
         <v>37719</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28066</v>
+        <v>28467</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49884</v>
+        <v>50106</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1106068845284457</v>
+        <v>0.1106068845284456</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08229980334606903</v>
+        <v>0.08347467168111661</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1462786228647321</v>
+        <v>0.1469299224425332</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>88061</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>73671</v>
+        <v>74088</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>101712</v>
+        <v>102642</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4794774581745793</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4011284429378223</v>
+        <v>0.4033978328481878</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5538063577630283</v>
+        <v>0.5588712785643181</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>95</v>
@@ -1334,19 +1334,19 @@
         <v>64725</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>54903</v>
+        <v>54776</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>77667</v>
+        <v>75843</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4113154730993614</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.348893470444688</v>
+        <v>0.3480901032852</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4935559982966727</v>
+        <v>0.4819622541751074</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>180</v>
@@ -1355,19 +1355,19 @@
         <v>152786</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>135726</v>
+        <v>134760</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>171423</v>
+        <v>170650</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4480246782055032</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.397997616274859</v>
+        <v>0.3951649036177828</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5026750344994158</v>
+        <v>0.500406906471826</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>41738</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31898</v>
+        <v>29892</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55140</v>
+        <v>53580</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2272551110650333</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1736777336943798</v>
+        <v>0.1627570276056239</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.30022974122211</v>
+        <v>0.291734921618727</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -1405,19 +1405,19 @@
         <v>33080</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24942</v>
+        <v>24636</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43916</v>
+        <v>42547</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2102170514250845</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1585038936232065</v>
+        <v>0.156555486825821</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2790751042310666</v>
+        <v>0.2703776368618712</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>88</v>
@@ -1426,19 +1426,19 @@
         <v>74818</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61673</v>
+        <v>61914</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89763</v>
+        <v>90085</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2193930404348435</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1808482756971732</v>
+        <v>0.1815532618272668</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2632173914193903</v>
+        <v>0.2641628899842595</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>15565</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9504</v>
+        <v>9237</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23671</v>
+        <v>22988</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08475016406944327</v>
+        <v>0.08475016406944325</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05174576554298367</v>
+        <v>0.05029178461054912</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1288864502001754</v>
+        <v>0.1251659877977831</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -1476,19 +1476,19 @@
         <v>26168</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18270</v>
+        <v>18990</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34711</v>
+        <v>34914</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1662945681549407</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.116102166015664</v>
+        <v>0.1206790269845295</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2205821581327643</v>
+        <v>0.2218716819864951</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>57</v>
@@ -1497,19 +1497,19 @@
         <v>41734</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31992</v>
+        <v>31479</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54210</v>
+        <v>53821</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1223781497652865</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09381157147858711</v>
+        <v>0.09230887021685777</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1589638794300311</v>
+        <v>0.1578228605892761</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>6826</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2620</v>
+        <v>2598</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16150</v>
+        <v>16263</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03457580545033802</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01327353023603503</v>
+        <v>0.01315826674196693</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0818075290888373</v>
+        <v>0.08238348948231056</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1622,19 +1622,19 @@
         <v>4138</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1766</v>
+        <v>1670</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8552</v>
+        <v>8368</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05534729047334051</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02362286245958782</v>
+        <v>0.02234287519064252</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1143833139520639</v>
+        <v>0.1119241746454709</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>10964</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5877</v>
+        <v>5806</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20241</v>
+        <v>20342</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0402815709107319</v>
+        <v>0.04028157091073189</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02159430246375973</v>
+        <v>0.02133025272557338</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07436799292570422</v>
+        <v>0.07474011477772818</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>48128</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>37060</v>
+        <v>36346</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62405</v>
+        <v>60893</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2437986880613677</v>
+        <v>0.2437986880613678</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1877320489743453</v>
+        <v>0.1841161516575867</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3161212414372984</v>
+        <v>0.3084611352777318</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -1693,19 +1693,19 @@
         <v>21924</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16185</v>
+        <v>15904</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29227</v>
+        <v>29023</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.29324418039762</v>
+        <v>0.2932441803976201</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2164818021590315</v>
+        <v>0.212724032176501</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3909225783539127</v>
+        <v>0.3881984918913836</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>84</v>
@@ -1714,19 +1714,19 @@
         <v>70052</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>56421</v>
+        <v>57336</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>82485</v>
+        <v>85911</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.257380980421877</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2072971267395207</v>
+        <v>0.2106578502938163</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3030597730394404</v>
+        <v>0.315648086332398</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>85210</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>71657</v>
+        <v>72893</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>99510</v>
+        <v>100626</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4316406126480569</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3629881306270735</v>
+        <v>0.369245008303012</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5040758827781641</v>
+        <v>0.5097293200371205</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>44</v>
@@ -1764,19 +1764,19 @@
         <v>25075</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18963</v>
+        <v>19391</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31489</v>
+        <v>32606</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3353922109403402</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2536439172800115</v>
+        <v>0.2593589028608079</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4211772532315829</v>
+        <v>0.4361251047208026</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>135</v>
@@ -1785,19 +1785,19 @@
         <v>110285</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>95688</v>
+        <v>94489</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>126811</v>
+        <v>124774</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4052019249242929</v>
+        <v>0.405201924924293</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3515699850377448</v>
+        <v>0.3471655533603061</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4659175243261297</v>
+        <v>0.458434991357288</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>32595</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22469</v>
+        <v>22531</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44760</v>
+        <v>44347</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1651156695259192</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1138212751176563</v>
+        <v>0.1141309695042974</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2267369832993641</v>
+        <v>0.2246462299238369</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -1835,19 +1835,19 @@
         <v>10086</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5841</v>
+        <v>6019</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15944</v>
+        <v>15334</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1349097507163438</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07812418292027674</v>
+        <v>0.08050561629254713</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2132590421911183</v>
+        <v>0.2051028518693301</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -1856,19 +1856,19 @@
         <v>42682</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31489</v>
+        <v>32630</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55480</v>
+        <v>54921</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1568183384466884</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1156955174401341</v>
+        <v>0.1198865987831764</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.203841361298818</v>
+        <v>0.2017856618025839</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>24650</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17157</v>
+        <v>16937</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34226</v>
+        <v>37434</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.124869224314318</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08691198949095628</v>
+        <v>0.08579725994428705</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1733765427866237</v>
+        <v>0.1896274564529664</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>22</v>
@@ -1906,19 +1906,19 @@
         <v>13540</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8378</v>
+        <v>8655</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19160</v>
+        <v>19259</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1811065674723553</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1120555616886469</v>
+        <v>0.1157706291428022</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2562724035802455</v>
+        <v>0.2575942903366468</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>51</v>
@@ -1927,19 +1927,19 @@
         <v>38191</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28297</v>
+        <v>28893</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>50708</v>
+        <v>49372</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1403171852964098</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1039680730749619</v>
+        <v>0.1061578660872439</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1863065122881972</v>
+        <v>0.1813992761243268</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>40398</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27455</v>
+        <v>26702</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>61079</v>
+        <v>60380</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.09185210452494474</v>
+        <v>0.09185210452494476</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06242263412783008</v>
+        <v>0.06071139363738792</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1388743928389042</v>
+        <v>0.1372846830602756</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -2052,19 +2052,19 @@
         <v>27206</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19623</v>
+        <v>18966</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38150</v>
+        <v>38223</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.08603888082934037</v>
+        <v>0.08603888082934036</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06205890211690457</v>
+        <v>0.05997970340303007</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1206500277702668</v>
+        <v>0.120881179115251</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>64</v>
@@ -2073,19 +2073,19 @@
         <v>67604</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>51568</v>
+        <v>50446</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>90576</v>
+        <v>89802</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.089420739684883</v>
+        <v>0.08942073968488302</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06821007042876025</v>
+        <v>0.06672620047164829</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1198059846874168</v>
+        <v>0.1187819159861093</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>123273</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>104717</v>
+        <v>104870</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>143958</v>
+        <v>146168</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.280283460665547</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.23809268393581</v>
+        <v>0.2384393395593653</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.327314144633657</v>
+        <v>0.3323387330099266</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>156</v>
@@ -2123,19 +2123,19 @@
         <v>102010</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>85933</v>
+        <v>88206</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>116681</v>
+        <v>117624</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3226082721162307</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2717646034436871</v>
+        <v>0.2789518651764926</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3690055235398697</v>
+        <v>0.3719886442089297</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>283</v>
@@ -2144,19 +2144,19 @@
         <v>225283</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>201791</v>
+        <v>202317</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>251821</v>
+        <v>248337</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2979856967761662</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2669114081689858</v>
+        <v>0.2676075979768824</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3330874249011048</v>
+        <v>0.328479437632281</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>159994</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>139015</v>
+        <v>137565</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>178907</v>
+        <v>182688</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3637730082220856</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3160754913786942</v>
+        <v>0.31277733514714</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4067762615342224</v>
+        <v>0.4153731586796163</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>174</v>
@@ -2194,19 +2194,19 @@
         <v>112856</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>99958</v>
+        <v>98144</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>128527</v>
+        <v>127575</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3569087092000591</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3161196273739972</v>
+        <v>0.3103831903951458</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.406467477355694</v>
+        <v>0.4034564090090126</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>348</v>
@@ -2215,19 +2215,19 @@
         <v>272850</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>248649</v>
+        <v>249718</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>299353</v>
+        <v>298317</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.360902034014359</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3288921008237172</v>
+        <v>0.3303053461792497</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3959585953106953</v>
+        <v>0.3945884671600812</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>69637</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>55551</v>
+        <v>54451</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>89134</v>
+        <v>87772</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1583328325122615</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1263038647609127</v>
+        <v>0.1238038486722603</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.202660979026686</v>
+        <v>0.1995641331916179</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>55</v>
@@ -2265,19 +2265,19 @@
         <v>43923</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32925</v>
+        <v>33963</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>55527</v>
+        <v>56140</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1389086021374437</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1041271047855839</v>
+        <v>0.1074078646454627</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1756045404347019</v>
+        <v>0.1775446888367568</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>125</v>
@@ -2286,19 +2286,19 @@
         <v>113561</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>95674</v>
+        <v>95590</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>133018</v>
+        <v>136126</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1502087015220328</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1265493093145064</v>
+        <v>0.126438308579497</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1759443974717544</v>
+        <v>0.1800554190485517</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>46514</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>34313</v>
+        <v>34538</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>61093</v>
+        <v>61047</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1057585940751611</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07801745770666774</v>
+        <v>0.07852766603999763</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1389050375473673</v>
+        <v>0.138801126036233</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>46</v>
@@ -2336,19 +2336,19 @@
         <v>30209</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22235</v>
+        <v>22382</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>40339</v>
+        <v>39427</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09553553571692627</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.070319942262378</v>
+        <v>0.0707844826996431</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1275730972323548</v>
+        <v>0.1246876263630436</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>98</v>
@@ -2357,19 +2357,19 @@
         <v>76723</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>61731</v>
+        <v>63576</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>93424</v>
+        <v>95395</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.101482828002559</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08165250414432687</v>
+        <v>0.08409256343950754</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.123572690579571</v>
+        <v>0.1261803340925251</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>7063</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2786</v>
+        <v>2896</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14896</v>
+        <v>14055</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.03202492677715475</v>
+        <v>0.03202492677715473</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01263171239327875</v>
+        <v>0.01313357585015946</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06754414483956117</v>
+        <v>0.06373160262335681</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>38</v>
@@ -2482,19 +2482,19 @@
         <v>23919</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17226</v>
+        <v>17060</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>31592</v>
+        <v>32435</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07271291174676901</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05236885976202078</v>
+        <v>0.05186181684103722</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0960416608756689</v>
+        <v>0.09860186530761285</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>45</v>
@@ -2503,19 +2503,19 @@
         <v>30981</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>22957</v>
+        <v>22778</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>41880</v>
+        <v>41190</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.05638246063957711</v>
+        <v>0.05638246063957712</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04177859292272076</v>
+        <v>0.04145303443006854</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07621609587028572</v>
+        <v>0.07496042027847459</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>103983</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>87832</v>
+        <v>88939</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>118847</v>
+        <v>118947</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4714937846072862</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3982608440963543</v>
+        <v>0.4032792584225748</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5388920457839221</v>
+        <v>0.5393441592477335</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>231</v>
@@ -2553,19 +2553,19 @@
         <v>137384</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>122592</v>
+        <v>122231</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>152008</v>
+        <v>152937</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.4176503715214481</v>
+        <v>0.417650371521448</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3726819006214808</v>
+        <v>0.3715834442260667</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.462107345664548</v>
+        <v>0.464932877816681</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>333</v>
@@ -2574,19 +2574,19 @@
         <v>241367</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>219828</v>
+        <v>220815</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>262854</v>
+        <v>263045</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4392608598633816</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4000619394121487</v>
+        <v>0.401857727923194</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4783641342584244</v>
+        <v>0.4787126241928863</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>66486</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>53602</v>
+        <v>53664</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>80244</v>
+        <v>80986</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3014708544847711</v>
+        <v>0.301470854484771</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.243047828272327</v>
+        <v>0.2433285264434698</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3638505691664149</v>
+        <v>0.3672175455654724</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>137</v>
@@ -2624,19 +2624,19 @@
         <v>84486</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>72119</v>
+        <v>72793</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>97772</v>
+        <v>97270</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2568388988163159</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2192435375542684</v>
+        <v>0.221292727456257</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2972286925888956</v>
+        <v>0.2957028067002281</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>206</v>
@@ -2645,19 +2645,19 @@
         <v>150972</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>133394</v>
+        <v>133169</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>169627</v>
+        <v>170765</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.274752294390129</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2427623392027449</v>
+        <v>0.2423531996164997</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3087011254420698</v>
+        <v>0.3107727736202888</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>19598</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12019</v>
+        <v>11945</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>31474</v>
+        <v>29441</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.08886281579187948</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05449859274741996</v>
+        <v>0.05416267188964901</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1427146393356388</v>
+        <v>0.1334954867071508</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>64</v>
@@ -2695,19 +2695,19 @@
         <v>44935</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>34862</v>
+        <v>35129</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>56282</v>
+        <v>55482</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1366023481749164</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1059815272675002</v>
+        <v>0.1067920632763059</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1710989529669021</v>
+        <v>0.1686656956842069</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>83</v>
@@ -2716,19 +2716,19 @@
         <v>64532</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>50166</v>
+        <v>50421</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>78231</v>
+        <v>78323</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.117441701609509</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09129726799860313</v>
+        <v>0.0917601144135495</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1423710344813638</v>
+        <v>0.1425383432492446</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>23410</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>16326</v>
+        <v>15583</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>33707</v>
+        <v>34299</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1061476183389086</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07402718474418697</v>
+        <v>0.07065865769323969</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1528386659340393</v>
+        <v>0.1555221969827679</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>58</v>
@@ -2766,19 +2766,19 @@
         <v>38222</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>29568</v>
+        <v>29377</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>49126</v>
+        <v>48537</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1161954697405507</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08988806112816859</v>
+        <v>0.08930775408724174</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1493433110896457</v>
+        <v>0.1475543224831619</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>83</v>
@@ -2787,19 +2787,19 @@
         <v>61632</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>49009</v>
+        <v>49070</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>76091</v>
+        <v>74971</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1121626834974033</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08919069565124275</v>
+        <v>0.08930165535206733</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.138476478737295</v>
+        <v>0.1364388460824504</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>18346</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7470</v>
+        <v>8163</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>35451</v>
+        <v>36590</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2543272605658267</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1035618896455746</v>
+        <v>0.1131579094159943</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.491457214304454</v>
+        <v>0.5072500727556425</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>41</v>
@@ -2912,19 +2912,19 @@
         <v>32427</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>22103</v>
+        <v>22984</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>48389</v>
+        <v>47496</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.09109743416860289</v>
+        <v>0.09109743416860287</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06209344556244442</v>
+        <v>0.06456851574642168</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1359382628111893</v>
+        <v>0.1334280411215658</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>48</v>
@@ -2933,19 +2933,19 @@
         <v>50774</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>36031</v>
+        <v>34977</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>77393</v>
+        <v>73187</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1186018108886055</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08416474629220733</v>
+        <v>0.08170272827462817</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1807814508458527</v>
+        <v>0.1709574378630571</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>24954</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>13134</v>
+        <v>12972</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>38517</v>
+        <v>38860</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3459393705654307</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1820740925994649</v>
+        <v>0.1798248702628825</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5339623272245273</v>
+        <v>0.5387111264721789</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>187</v>
@@ -2983,19 +2983,19 @@
         <v>132586</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>115510</v>
+        <v>114496</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>150184</v>
+        <v>151189</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3724705764235685</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.324497782925571</v>
+        <v>0.32164825025952</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4219057570563346</v>
+        <v>0.4247294504290787</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>198</v>
@@ -3004,19 +3004,19 @@
         <v>157541</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>136189</v>
+        <v>136292</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>179818</v>
+        <v>179162</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3680000436976293</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.318124611756066</v>
+        <v>0.3183632168268047</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4200367016628828</v>
+        <v>0.4185038597570515</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>10481</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3930</v>
+        <v>3882</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>21946</v>
+        <v>20068</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1452931788042922</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05448742305408756</v>
+        <v>0.05381747005667489</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3042408266051644</v>
+        <v>0.2782072740391641</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>127</v>
@@ -3054,19 +3054,19 @@
         <v>87731</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>72706</v>
+        <v>74242</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>103986</v>
+        <v>103174</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.246460068959924</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2042515650062489</v>
+        <v>0.2085647400143359</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2921248536914124</v>
+        <v>0.2898442512236383</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>133</v>
@@ -3075,19 +3075,19 @@
         <v>98212</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>80524</v>
+        <v>81243</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>116596</v>
+        <v>116547</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2294133543989451</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1880950257428133</v>
+        <v>0.1897761010751511</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2723558117822126</v>
+        <v>0.2722411724431067</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>10542</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3450</v>
+        <v>3879</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>22486</v>
+        <v>21903</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1461442040886411</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04783153213375524</v>
+        <v>0.05378054759816259</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3117147930226526</v>
+        <v>0.3036359319585769</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>67</v>
@@ -3125,19 +3125,19 @@
         <v>46087</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>35748</v>
+        <v>35814</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>58231</v>
+        <v>58891</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1294706974576937</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1004262712422375</v>
+        <v>0.1006121738781392</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1635866876859774</v>
+        <v>0.1654412141396822</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>72</v>
@@ -3146,19 +3146,19 @@
         <v>56629</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>43274</v>
+        <v>44413</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>73218</v>
+        <v>72722</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1322801987464167</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.101083206587172</v>
+        <v>0.103745304848028</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.17102952464578</v>
+        <v>0.1698715512331487</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>7812</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2197</v>
+        <v>2520</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>17969</v>
+        <v>21057</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1082959859758093</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03045704023274676</v>
+        <v>0.03492844467918381</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2490965944490831</v>
+        <v>0.2919153594559712</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>72</v>
@@ -3196,19 +3196,19 @@
         <v>57133</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>44089</v>
+        <v>45226</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>71001</v>
+        <v>72229</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1605012229902109</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1238580977125179</v>
+        <v>0.1270531994537981</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1994603055536681</v>
+        <v>0.2029107087749501</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>76</v>
@@ -3217,19 +3217,19 @@
         <v>64945</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>50383</v>
+        <v>50615</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>81696</v>
+        <v>83582</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1517045922684034</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.11768921838299</v>
+        <v>0.1182309717416524</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1908332213681437</v>
+        <v>0.1952394840634097</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>110307</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>86380</v>
+        <v>85605</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>142807</v>
+        <v>140834</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.08501918748298838</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.06657804193312909</v>
+        <v>0.06598059747851166</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1100686637922124</v>
+        <v>0.1085483286515057</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>156</v>
@@ -3342,19 +3342,19 @@
         <v>114345</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>94614</v>
+        <v>95836</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>135218</v>
+        <v>135819</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.08250049375252294</v>
+        <v>0.08250049375252291</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06826426773930556</v>
+        <v>0.06914590543086901</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.09755982299238035</v>
+        <v>0.09799371833720032</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>236</v>
@@ -3363,19 +3363,19 @@
         <v>224652</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>194643</v>
+        <v>192807</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>264312</v>
+        <v>262213</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.08371827687226875</v>
+        <v>0.08371827687226877</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07253521609925685</v>
+        <v>0.07185109063564855</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09849785995521324</v>
+        <v>0.09771546232357932</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>331582</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>298481</v>
+        <v>300033</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>368107</v>
+        <v>367200</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2555680234296189</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2300549400346847</v>
+        <v>0.2312512499410635</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2837199113638385</v>
+        <v>0.283020492533176</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>658</v>
@@ -3413,19 +3413,19 @@
         <v>430569</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>402886</v>
+        <v>401517</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>465615</v>
+        <v>464075</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3106563701743442</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2906834208437266</v>
+        <v>0.2896956721603794</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.335942367678685</v>
+        <v>0.3348313411228604</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>980</v>
@@ -3434,19 +3434,19 @@
         <v>762151</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>715710</v>
+        <v>718646</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>810250</v>
+        <v>806458</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2840212704204595</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2667147334146204</v>
+        <v>0.2678088766300542</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3019459252149014</v>
+        <v>0.3005326602711967</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>493966</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>459072</v>
+        <v>456991</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>535635</v>
+        <v>532334</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3807259260795075</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.353830896821916</v>
+        <v>0.3522270708270913</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4128428161860306</v>
+        <v>0.4102981574698226</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>683</v>
@@ -3484,19 +3484,19 @@
         <v>446221</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>417084</v>
+        <v>416176</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>476758</v>
+        <v>479026</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3219497773459103</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3009269699609868</v>
+        <v>0.3002722579182253</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3439816844771679</v>
+        <v>0.3456186328935413</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1191</v>
@@ -3505,19 +3505,19 @@
         <v>940187</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>890870</v>
+        <v>891633</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>985764</v>
+        <v>984834</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.350367921602861</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3319892996677434</v>
+        <v>0.3322738265234031</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.367352264556604</v>
+        <v>0.3670057798128331</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>209318</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>181625</v>
+        <v>183118</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>239393</v>
+        <v>236723</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.1613325903523091</v>
+        <v>0.161332590352309</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1399882220874253</v>
+        <v>0.141139070109635</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1845125983840167</v>
+        <v>0.1824552105389776</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>283</v>
@@ -3555,19 +3555,19 @@
         <v>205142</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>183220</v>
+        <v>182956</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>229453</v>
+        <v>229986</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1480106202271962</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1321938216140359</v>
+        <v>0.1320032870639549</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1655510006646277</v>
+        <v>0.1659354009537357</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>490</v>
@@ -3576,19 +3576,19 @@
         <v>414460</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>380836</v>
+        <v>377709</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>452300</v>
+        <v>451824</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.154451764755365</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1419215309741027</v>
+        <v>0.140755955744455</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1685528249738075</v>
+        <v>0.1683757528176235</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>152259</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>130292</v>
+        <v>128836</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>179682</v>
+        <v>175998</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1173542726555762</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1004230896398739</v>
+        <v>0.09930060286109681</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1384902632270961</v>
+        <v>0.1356507117030983</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>275</v>
@@ -3626,19 +3626,19 @@
         <v>189719</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>166869</v>
+        <v>168675</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>213419</v>
+        <v>214487</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.1368827385000265</v>
+        <v>0.1368827385000264</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1203960115277974</v>
+        <v>0.1216992680322144</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1539819645132883</v>
+        <v>0.154752979303126</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>443</v>
@@ -3647,19 +3647,19 @@
         <v>341978</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>308275</v>
+        <v>311313</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>377210</v>
+        <v>376390</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1274407663490458</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1148808254195684</v>
+        <v>0.1160130770644106</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1405701209341961</v>
+        <v>0.1402645433025594</v>
       </c>
     </row>
     <row r="45">
